--- a/OREI_files/40-herd data/40 herd compiled udder hygiene scores.xlsx
+++ b/OREI_files/40-herd data/40 herd compiled udder hygiene scores.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_888E562C6C95D2C7F6593B32FF9971950140ABB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D90655-F239-4D44-AB4A-74F7943360EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="7960" yWindow="360" windowWidth="10790" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Farm Name</t>
   </si>
@@ -103,12 +112,36 @@
   </si>
   <si>
     <t xml:space="preserve">BJ Family </t>
+  </si>
+  <si>
+    <t>Score 3+4</t>
+  </si>
+  <si>
+    <t>Perc. scores 3+4</t>
+  </si>
+  <si>
+    <t>Num. 1's x 1</t>
+  </si>
+  <si>
+    <t>Num. 3's x 3</t>
+  </si>
+  <si>
+    <t>Num. 2's x 2</t>
+  </si>
+  <si>
+    <t>Num. 4's x 4</t>
+  </si>
+  <si>
+    <t>Average?</t>
+  </si>
+  <si>
+    <t>Average score (herd-level)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,14 +175,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,20 +479,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,8 +523,32 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -485,11 +568,34 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <f>SUM(C2:F2)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.38709677419354799</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2.3548387096774195</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>27</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3">
+        <v>2.3548387096774195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -509,11 +615,34 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <f>SUM(C3:F3)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.1515151515151514</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>34</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2.1515151515151514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -533,11 +662,34 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>SUM(C4:F4)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2.2941176470588234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -557,11 +709,34 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f>SUM(C5:F5)</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.4827586206896552</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2.4827586206896552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -581,11 +756,34 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>SUM(C6:F6)</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.15625</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.90625</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>36</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1.90625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -605,11 +803,34 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <f>SUM(C7:F7)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -629,11 +850,34 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <f>SUM(C8:F8)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>54</v>
+      </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -653,11 +897,34 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUM(C9:F9)</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -677,11 +944,34 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>SUM(C10:F10)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.0606060606060606</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>38</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2.0606060606060606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -701,11 +991,34 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <f>SUM(C11:F11)</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2.2285714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -725,11 +1038,34 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>SUM(C12:F12)</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.9047619047619047</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>38</v>
+      </c>
+      <c r="N12">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1.9047619047619047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -749,11 +1085,34 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>SUM(C13:F13)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -773,11 +1132,34 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <f>SUM(C14:F14)</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.1379310344827585</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>21</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14" s="3">
+        <v>2.1379310344827585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -797,11 +1179,34 @@
         <v>6</v>
       </c>
       <c r="G15">
-        <f>SUM(C15:F15)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>34</v>
+      </c>
+      <c r="N15">
+        <v>36</v>
+      </c>
+      <c r="O15">
+        <v>24</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -821,11 +1226,34 @@
         <v>12</v>
       </c>
       <c r="G16">
-        <f>SUM(C16:F16)</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.8125</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>34</v>
+      </c>
+      <c r="N16">
+        <v>51</v>
+      </c>
+      <c r="O16">
+        <v>48</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2.8125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -845,11 +1273,34 @@
         <v>8</v>
       </c>
       <c r="G17">
-        <f>SUM(C17:F17)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2.9666666666666668</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>45</v>
+      </c>
+      <c r="O17">
+        <v>32</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2.9666666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -869,11 +1320,34 @@
         <v>15</v>
       </c>
       <c r="G18">
-        <f>SUM(C18:F18)</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>38</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.0416666666666665</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>69</v>
+      </c>
+      <c r="O18">
+        <v>60</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3.0416666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -893,11 +1367,34 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <f>SUM(C19:F19)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.972972972972973</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>40</v>
+      </c>
+      <c r="N19">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1.972972972972973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -917,11 +1414,34 @@
         <v>8</v>
       </c>
       <c r="G20">
-        <f>SUM(C20:F20)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>36</v>
+      </c>
+      <c r="O20">
+        <v>32</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -941,11 +1461,34 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f>SUM(C21:F21)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2.4516129032258065</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>48</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
+        <v>2.4516129032258065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -965,14 +1508,378 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <f>SUM(C22:F22)</f>
         <v>28</v>
       </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2.1071428571428572</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2.1071428571428572</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G22">
     <sortCondition ref="B2:B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA2F7BC-6C23-4949-A482-9A763A191EA3}">
+  <dimension ref="A2:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>SUM(A5:A35)</f>
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>SUM(G5:G37)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>C6/SUM(A3:D3)</f>
+        <v>2.3548387096774195</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>I6/SUM(33)</f>
+        <v>2.1515151515151514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>